--- a/采购单规范v0.2/发票-凭证表.xlsx
+++ b/采购单规范v0.2/发票-凭证表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.PC-201510231423\Documents\GitHub\About_Money\采购单规范v0.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\阳\Documents\GitHub\creative_about_money\采购单规范v0.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="321" uniqueCount="211">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="345" uniqueCount="232">
   <si>
     <t>发票号</t>
   </si>
@@ -789,6 +789,89 @@
   </si>
   <si>
     <t>江苏国税</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>02350954</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧阳</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>144001501333</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>44058219890210401001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东国税</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>09308930</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧阳</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>144031501133</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>440300062727328</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-03-05 创意组 欧阳 96.00元</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-03-08 创意组 欧阳 39.60元</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>09311356</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>144031501133</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>440582198107133912</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东国税</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>07224968</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-03-08 创意组 欧阳 19.80元</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-03-08 创意组 欧阳 30.29元</t>
+  </si>
+  <si>
+    <t>4403153320</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>9144030035973318X9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳国税</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1800,8 +1883,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3491,52 +3574,148 @@
         <v>210</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B65" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C65" s="2" t="d">
+        <v>2016-03-05</v>
+      </c>
+      <c r="D65" t="s">
+        <v>212</v>
+      </c>
+      <c r="E65" t="s">
+        <v>220</v>
+      </c>
+      <c r="F65" s="5">
+        <v>96</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J65" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B66" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C66" s="2" t="d">
+        <v>2016-03-08</v>
+      </c>
+      <c r="D66" t="s">
+        <v>217</v>
+      </c>
+      <c r="E66" t="s">
+        <v>221</v>
+      </c>
+      <c r="F66" s="5">
+        <v>39.6</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J66" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B67" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C67" s="2" t="d">
+        <v>2016-03-08</v>
+      </c>
+      <c r="D67" t="s">
+        <v>212</v>
+      </c>
+      <c r="E67" t="s">
+        <v>227</v>
+      </c>
+      <c r="F67" s="5">
+        <v>19.8</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J67" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B68" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C68" s="2" t="d">
+        <v>2016-03-08</v>
+      </c>
+      <c r="D68" t="s">
+        <v>212</v>
+      </c>
+      <c r="E68" t="s">
+        <v>228</v>
+      </c>
+      <c r="F68" s="5">
+        <v>30.29</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J68" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>

--- a/采购单规范v0.2/发票-凭证表.xlsx
+++ b/采购单规范v0.2/发票-凭证表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15" conformance="strict">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr dateCompatibility="0" defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\阳\Documents\GitHub\creative_about_money\采购单规范v0.2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="发票-凭证表" sheetId="1" r:id="rId1"/>
@@ -17,17 +12,12 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="345" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="238">
   <si>
     <t>发票号</t>
   </si>
@@ -872,13 +862,37 @@
   </si>
   <si>
     <t>深圳国税</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>20794228</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨森</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3200153320</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>32128119631027605601</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏国税</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-12-13 创意组 杨森 100.00元</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1238,15 +1252,15 @@
   </fills>
   <borders count="10">
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thick">
         <color theme="4"/>
@@ -1254,8 +1268,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
@@ -1263,8 +1277,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.39997558519241921"/>
@@ -1272,12 +1286,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FF7F7F7F"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FF7F7F7F"/>
       </top>
@@ -1287,12 +1301,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
@@ -1302,8 +1316,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1311,12 +1325,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="double">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
-      </start>
-      <end style="double">
+      </left>
+      <right style="double">
         <color rgb="FF3F3F3F"/>
-      </end>
+      </right>
       <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
@@ -1326,12 +1340,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FFB2B2B2"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FFB2B2B2"/>
       </top>
@@ -1341,8 +1355,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1504,24 +1518,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1536,15 +1550,15 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="5">
@@ -1619,7 +1633,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1738,25 +1752,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110%"/>
-                <a:satMod val="105%"/>
-                <a:tint val="67%"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="103%"/>
-                <a:tint val="73%"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="109%"/>
-                <a:tint val="81%"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -1764,25 +1778,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103%"/>
-                <a:lumMod val="102%"/>
-                <a:tint val="94%"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110%"/>
-                <a:lumMod val="100%"/>
-                <a:shade val="100%"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99%"/>
-                <a:satMod val="120%"/>
-                <a:shade val="78%"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -1795,21 +1809,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -1823,7 +1837,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63%"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1835,32 +1849,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95%"/>
-            <a:satMod val="170%"/>
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93%"/>
-                <a:satMod val="150%"/>
-                <a:shade val="98%"/>
-                <a:lumMod val="102%"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="98%"/>
-                <a:satMod val="130%"/>
-                <a:shade val="90%"/>
-                <a:lumMod val="103%"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63%"/>
-                <a:satMod val="120%"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -1873,18 +1887,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E72" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1930,8 +1944,8 @@
       <c r="B2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="2" t="d">
-        <v>2014-10-27</v>
+      <c r="C2" s="2">
+        <v>41939</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1947,8 +1961,8 @@
       <c r="B3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="2" t="d">
-        <v>2015-10-13</v>
+      <c r="C3" s="2">
+        <v>42290</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -1967,8 +1981,8 @@
       <c r="B4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="2" t="d">
-        <v>2015-09-02</v>
+      <c r="C4" s="2">
+        <v>42249</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1987,8 +2001,8 @@
       <c r="B5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="2" t="d">
-        <v>2015-09-20</v>
+      <c r="C5" s="2">
+        <v>42267</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -2007,8 +2021,8 @@
       <c r="B6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="2" t="d">
-        <v>2015-08-24</v>
+      <c r="C6" s="2">
+        <v>42240</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -2024,8 +2038,8 @@
       <c r="B7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="2" t="d">
-        <v>2015-10-20</v>
+      <c r="C7" s="2">
+        <v>42297</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -2044,8 +2058,8 @@
       <c r="B8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="2" t="d">
-        <v>2015-10-18</v>
+      <c r="C8" s="2">
+        <v>42295</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -2064,8 +2078,8 @@
       <c r="B9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="2" t="d">
-        <v>2015-07-28</v>
+      <c r="C9" s="2">
+        <v>42213</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -2081,8 +2095,8 @@
       <c r="B10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="2" t="d">
-        <v>2015-10-16</v>
+      <c r="C10" s="2">
+        <v>42293</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -2098,8 +2112,8 @@
       <c r="B11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="2" t="d">
-        <v>2015-10-24</v>
+      <c r="C11" s="2">
+        <v>42301</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -2118,8 +2132,8 @@
       <c r="B12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="2" t="d">
-        <v>2015-11-09</v>
+      <c r="C12" s="2">
+        <v>42317</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -2145,8 +2159,8 @@
       <c r="B13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="2" t="d">
-        <v>2015-11-09</v>
+      <c r="C13" s="2">
+        <v>42317</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -2172,8 +2186,8 @@
       <c r="B14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="2" t="d">
-        <v>2015-11-09</v>
+      <c r="C14" s="2">
+        <v>42317</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -2199,8 +2213,8 @@
       <c r="B15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="2" t="d">
-        <v>2015-11-09</v>
+      <c r="C15" s="2">
+        <v>42317</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -2226,8 +2240,8 @@
       <c r="B16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="2" t="d">
-        <v>2015-11-23</v>
+      <c r="C16" s="2">
+        <v>42331</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -2253,8 +2267,8 @@
       <c r="B17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="2" t="d">
-        <v>2015-11-23</v>
+      <c r="C17" s="2">
+        <v>42331</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
@@ -2280,8 +2294,8 @@
       <c r="B18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="2" t="d">
-        <v>2015-11-23</v>
+      <c r="C18" s="2">
+        <v>42331</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -2307,8 +2321,8 @@
       <c r="B19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="2" t="d">
-        <v>2015-11-23</v>
+      <c r="C19" s="2">
+        <v>42331</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -2334,8 +2348,8 @@
       <c r="B20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="2" t="d">
-        <v>2015-11-23</v>
+      <c r="C20" s="2">
+        <v>42331</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -2361,8 +2375,8 @@
       <c r="B21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="2" t="d">
-        <v>2015-11-23</v>
+      <c r="C21" s="2">
+        <v>42331</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -2388,8 +2402,8 @@
       <c r="B22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="2" t="d">
-        <v>2015-11-30</v>
+      <c r="C22" s="2">
+        <v>42338</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -2415,8 +2429,8 @@
       <c r="B23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="2" t="d">
-        <v>2015-11-30</v>
+      <c r="C23" s="2">
+        <v>42338</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -2442,8 +2456,8 @@
       <c r="B24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="2" t="d">
-        <v>2015-12-10</v>
+      <c r="C24" s="2">
+        <v>42348</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
@@ -2468,8 +2482,8 @@
       <c r="B25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="2" t="d">
-        <v>2015-12-10</v>
+      <c r="C25" s="2">
+        <v>42348</v>
       </c>
       <c r="D25" t="s">
         <v>23</v>
@@ -2494,8 +2508,8 @@
       <c r="B26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="2" t="d">
-        <v>2015-12-10</v>
+      <c r="C26" s="2">
+        <v>42348</v>
       </c>
       <c r="D26" t="s">
         <v>23</v>
@@ -2520,8 +2534,8 @@
       <c r="B27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="2" t="d">
-        <v>2015-12-18</v>
+      <c r="C27" s="2">
+        <v>42356</v>
       </c>
       <c r="D27" t="s">
         <v>23</v>
@@ -2546,8 +2560,8 @@
       <c r="B28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="2" t="d">
-        <v>2015-12-13</v>
+      <c r="C28" s="2">
+        <v>42351</v>
       </c>
       <c r="D28" t="s">
         <v>67</v>
@@ -2572,8 +2586,8 @@
       <c r="B29" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="2" t="d">
-        <v>2015-12-13</v>
+      <c r="C29" s="2">
+        <v>42351</v>
       </c>
       <c r="D29" t="s">
         <v>67</v>
@@ -2598,8 +2612,8 @@
       <c r="B30" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="2" t="d">
-        <v>2015-11-25</v>
+      <c r="C30" s="2">
+        <v>42333</v>
       </c>
       <c r="D30" t="s">
         <v>67</v>
@@ -2624,8 +2638,8 @@
       <c r="B31" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="2" t="d">
-        <v>2015-11-25</v>
+      <c r="C31" s="2">
+        <v>42333</v>
       </c>
       <c r="D31" t="s">
         <v>67</v>
@@ -2650,8 +2664,8 @@
       <c r="B32" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="2" t="d">
-        <v>2015-11-22</v>
+      <c r="C32" s="2">
+        <v>42330</v>
       </c>
       <c r="D32" t="s">
         <v>67</v>
@@ -2676,8 +2690,8 @@
       <c r="B33" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="2" t="d">
-        <v>2015-11-22</v>
+      <c r="C33" s="2">
+        <v>42330</v>
       </c>
       <c r="D33" t="s">
         <v>67</v>
@@ -2702,8 +2716,8 @@
       <c r="B34" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="2" t="d">
-        <v>2015-11-22</v>
+      <c r="C34" s="2">
+        <v>42330</v>
       </c>
       <c r="D34" t="s">
         <v>67</v>
@@ -2728,8 +2742,8 @@
       <c r="B35" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="2" t="d">
-        <v>2015-11-22</v>
+      <c r="C35" s="2">
+        <v>42330</v>
       </c>
       <c r="D35" t="s">
         <v>67</v>
@@ -2754,8 +2768,8 @@
       <c r="B36" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="2" t="d">
-        <v>2015-11-22</v>
+      <c r="C36" s="2">
+        <v>42330</v>
       </c>
       <c r="D36" t="s">
         <v>67</v>
@@ -2780,8 +2794,8 @@
       <c r="B37" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="2" t="d">
-        <v>2015-10-17</v>
+      <c r="C37" s="2">
+        <v>42294</v>
       </c>
       <c r="D37" t="s">
         <v>67</v>
@@ -2806,8 +2820,8 @@
       <c r="B38" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="2" t="d">
-        <v>2015-11-22</v>
+      <c r="C38" s="2">
+        <v>42330</v>
       </c>
       <c r="D38" t="s">
         <v>99</v>
@@ -2832,8 +2846,8 @@
       <c r="B39" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C39" s="2" t="d">
-        <v>2015-11-22</v>
+      <c r="C39" s="2">
+        <v>42330</v>
       </c>
       <c r="D39" t="s">
         <v>104</v>
@@ -2858,8 +2872,8 @@
       <c r="B40" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="2" t="d">
-        <v>2015-11-22</v>
+      <c r="C40" s="2">
+        <v>42330</v>
       </c>
       <c r="D40" t="s">
         <v>104</v>
@@ -2884,8 +2898,8 @@
       <c r="B41" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="2" t="d">
-        <v>2015-11-30</v>
+      <c r="C41" s="2">
+        <v>42338</v>
       </c>
       <c r="D41" t="s">
         <v>113</v>
@@ -2910,8 +2924,8 @@
       <c r="B42" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C42" s="2" t="d">
-        <v>2015-11-30</v>
+      <c r="C42" s="2">
+        <v>42338</v>
       </c>
       <c r="D42" t="s">
         <v>104</v>
@@ -2936,8 +2950,8 @@
       <c r="B43" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="2" t="d">
-        <v>2015-12-04</v>
+      <c r="C43" s="2">
+        <v>42342</v>
       </c>
       <c r="D43" t="s">
         <v>104</v>
@@ -2962,8 +2976,8 @@
       <c r="B44" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C44" s="2" t="d">
-        <v>2015-12-09</v>
+      <c r="C44" s="2">
+        <v>42347</v>
       </c>
       <c r="D44" t="s">
         <v>104</v>
@@ -2985,8 +2999,8 @@
       <c r="B45" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C45" s="2" t="d">
-        <v>2015-12-14</v>
+      <c r="C45" s="2">
+        <v>42352</v>
       </c>
       <c r="D45" t="s">
         <v>104</v>
@@ -3011,8 +3025,8 @@
       <c r="B46" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C46" s="2" t="d">
-        <v>2015-07-21</v>
+      <c r="C46" s="2">
+        <v>42206</v>
       </c>
       <c r="D46" t="s">
         <v>132</v>
@@ -3037,8 +3051,8 @@
       <c r="B47" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C47" s="2" t="d">
-        <v>2015-12-05</v>
+      <c r="C47" s="2">
+        <v>42343</v>
       </c>
       <c r="D47" t="s">
         <v>138</v>
@@ -3070,8 +3084,8 @@
       <c r="B48" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C48" s="2" t="d">
-        <v>2015-12-06</v>
+      <c r="C48" s="2">
+        <v>42344</v>
       </c>
       <c r="D48" t="s">
         <v>137</v>
@@ -3101,8 +3115,8 @@
       <c r="B49" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C49" s="2" t="d">
-        <v>2015-12-05</v>
+      <c r="C49" s="2">
+        <v>42343</v>
       </c>
       <c r="D49" t="s">
         <v>150</v>
@@ -3134,8 +3148,8 @@
       <c r="B50" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C50" s="2" t="d">
-        <v>2015-11-22</v>
+      <c r="C50" s="2">
+        <v>42330</v>
       </c>
       <c r="D50" t="s">
         <v>137</v>
@@ -3165,8 +3179,8 @@
       <c r="B51" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C51" s="2" t="d">
-        <v>2015-11-11</v>
+      <c r="C51" s="2">
+        <v>42319</v>
       </c>
       <c r="D51" t="s">
         <v>137</v>
@@ -3199,8 +3213,8 @@
       <c r="B52" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C52" s="2" t="d">
-        <v>2015-11-17</v>
+      <c r="C52" s="2">
+        <v>42325</v>
       </c>
       <c r="D52" t="s">
         <v>166</v>
@@ -3233,8 +3247,8 @@
       <c r="B53" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C53" s="2" t="d">
-        <v>2015-12-25</v>
+      <c r="C53" s="2">
+        <v>42363</v>
       </c>
       <c r="D53" t="s">
         <v>181</v>
@@ -3262,8 +3276,8 @@
       <c r="B54" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C54" s="2" t="d">
-        <v>2016-01-21</v>
+      <c r="C54" s="2">
+        <v>42390</v>
       </c>
       <c r="D54" t="s">
         <v>181</v>
@@ -3291,8 +3305,8 @@
       <c r="B55" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C55" s="2" t="d">
-        <v>2016-01-21</v>
+      <c r="C55" s="2">
+        <v>42390</v>
       </c>
       <c r="D55" t="s">
         <v>181</v>
@@ -3320,8 +3334,8 @@
       <c r="B56" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C56" s="2" t="d">
-        <v>2016-01-21</v>
+      <c r="C56" s="2">
+        <v>42390</v>
       </c>
       <c r="D56" t="s">
         <v>181</v>
@@ -3349,8 +3363,8 @@
       <c r="B57" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C57" s="2" t="d">
-        <v>2016-01-21</v>
+      <c r="C57" s="2">
+        <v>42390</v>
       </c>
       <c r="D57" t="s">
         <v>181</v>
@@ -3378,8 +3392,8 @@
       <c r="B58" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C58" s="2" t="d">
-        <v>2016-01-21</v>
+      <c r="C58" s="2">
+        <v>42390</v>
       </c>
       <c r="D58" t="s">
         <v>181</v>
@@ -3407,8 +3421,8 @@
       <c r="B59" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C59" s="2" t="d">
-        <v>2016-01-21</v>
+      <c r="C59" s="2">
+        <v>42390</v>
       </c>
       <c r="D59" t="s">
         <v>181</v>
@@ -3436,8 +3450,8 @@
       <c r="B60" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C60" s="2" t="d">
-        <v>2016-01-21</v>
+      <c r="C60" s="2">
+        <v>42390</v>
       </c>
       <c r="D60" t="s">
         <v>181</v>
@@ -3465,8 +3479,8 @@
       <c r="B61" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C61" s="2" t="d">
-        <v>2016-01-21</v>
+      <c r="C61" s="2">
+        <v>42390</v>
       </c>
       <c r="D61" t="s">
         <v>181</v>
@@ -3494,8 +3508,8 @@
       <c r="B62" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C62" s="2" t="d">
-        <v>2016-01-21</v>
+      <c r="C62" s="2">
+        <v>42390</v>
       </c>
       <c r="D62" t="s">
         <v>181</v>
@@ -3523,8 +3537,8 @@
       <c r="B63" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C63" s="2" t="d">
-        <v>2016-01-21</v>
+      <c r="C63" s="2">
+        <v>42390</v>
       </c>
       <c r="D63" t="s">
         <v>181</v>
@@ -3552,8 +3566,8 @@
       <c r="B64" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C64" s="2" t="d">
-        <v>2016-01-23</v>
+      <c r="C64" s="2">
+        <v>42392</v>
       </c>
       <c r="D64" t="s">
         <v>181</v>
@@ -3581,8 +3595,8 @@
       <c r="B65" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C65" s="2" t="d">
-        <v>2016-03-05</v>
+      <c r="C65" s="2">
+        <v>42434</v>
       </c>
       <c r="D65" t="s">
         <v>212</v>
@@ -3610,8 +3624,8 @@
       <c r="B66" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C66" s="2" t="d">
-        <v>2016-03-08</v>
+      <c r="C66" s="2">
+        <v>42437</v>
       </c>
       <c r="D66" t="s">
         <v>217</v>
@@ -3639,8 +3653,8 @@
       <c r="B67" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C67" s="2" t="d">
-        <v>2016-03-08</v>
+      <c r="C67" s="2">
+        <v>42437</v>
       </c>
       <c r="D67" t="s">
         <v>212</v>
@@ -3668,8 +3682,8 @@
       <c r="B68" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C68" s="2" t="d">
-        <v>2016-03-08</v>
+      <c r="C68" s="2">
+        <v>42437</v>
       </c>
       <c r="D68" t="s">
         <v>212</v>
@@ -3693,6 +3707,30 @@
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C69" s="2">
+        <v>42351</v>
+      </c>
+      <c r="D69" t="s">
+        <v>233</v>
+      </c>
+      <c r="E69" t="s">
+        <v>237</v>
+      </c>
+      <c r="F69" s="5">
+        <v>100</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J69" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">

--- a/采购单规范v0.2/发票-凭证表.xlsx
+++ b/采购单规范v0.2/发票-凭证表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="267">
   <si>
     <t>发票号</t>
   </si>
@@ -887,6 +887,116 @@
   <si>
     <t>2015-12-13 创意组 杨森 100.00元</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>05048527</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4200153320</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>420101303351203</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北国税</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-1-5 创意组 杨森 112.00元</t>
+  </si>
+  <si>
+    <t>02401270</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>131001463309</t>
+  </si>
+  <si>
+    <t>310109133103169</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海国税</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>00506959</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>233021501001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>330303681078646</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江地税</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-03-07 创意组 杨森 185.00元</t>
+  </si>
+  <si>
+    <t>02022570</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>132051580630</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>320508L68190907</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏国税</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-03-04 创意组 杨森 100.00元</t>
+  </si>
+  <si>
+    <t>75829042</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3100151320</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>310115324670975</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海国税</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-03-04 创意组 杨森 16.00元</t>
+  </si>
+  <si>
+    <t>07271316</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4403153320</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>440300311716356</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳国税</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-03-11 创意组 杨森 95.12元</t>
   </si>
 </sst>
 </file>
@@ -1887,7 +1997,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1895,10 +2005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E72" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E81" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3737,25 +3847,181 @@
       <c r="A70">
         <v>69</v>
       </c>
+      <c r="B70" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C70" s="2">
+        <v>42375</v>
+      </c>
+      <c r="D70" t="s">
+        <v>233</v>
+      </c>
+      <c r="E70" t="s">
+        <v>242</v>
+      </c>
+      <c r="F70" s="5">
+        <v>112</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J70" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
+      <c r="B71" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C71" s="2">
+        <v>42157</v>
+      </c>
+      <c r="D71" t="s">
+        <v>233</v>
+      </c>
+      <c r="F71" s="5">
+        <v>93</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J71" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
+      <c r="B72" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C72" s="2">
+        <v>42436</v>
+      </c>
+      <c r="D72" t="s">
+        <v>233</v>
+      </c>
+      <c r="E72" t="s">
+        <v>251</v>
+      </c>
+      <c r="F72" s="5">
+        <v>185</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J72" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
+      <c r="B73" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C73" s="2">
+        <v>42433</v>
+      </c>
+      <c r="D73" t="s">
+        <v>233</v>
+      </c>
+      <c r="E73" t="s">
+        <v>256</v>
+      </c>
+      <c r="F73" s="5">
+        <v>100</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J73" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C74" s="2">
+        <v>42433</v>
+      </c>
+      <c r="D74" t="s">
+        <v>233</v>
+      </c>
+      <c r="E74" t="s">
+        <v>261</v>
+      </c>
+      <c r="F74" s="5">
+        <v>16</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J74" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C75" s="2">
+        <v>42440</v>
+      </c>
+      <c r="D75" t="s">
+        <v>233</v>
+      </c>
+      <c r="E75" t="s">
+        <v>266</v>
+      </c>
+      <c r="F75" s="5">
+        <v>95.12</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J75" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/采购单规范v0.2/发票-凭证表.xlsx
+++ b/采购单规范v0.2/发票-凭证表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="273">
   <si>
     <t>发票号</t>
   </si>
@@ -997,6 +997,29 @@
   </si>
   <si>
     <t>2016-03-11 创意组 杨森 95.12元</t>
+  </si>
+  <si>
+    <t>00167912</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨森</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>133011630339</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3303231977102336341J</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江国税</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-03-14 创意组 杨森 99.90元</t>
   </si>
 </sst>
 </file>
@@ -1997,7 +2020,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2008,7 +2031,7 @@
   <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E81" sqref="A1:XFD1048576"/>
+      <selection activeCell="E76" sqref="A1:L77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4018,6 +4041,30 @@
       <c r="A76">
         <v>75</v>
       </c>
+      <c r="B76" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C76" s="2">
+        <v>42443</v>
+      </c>
+      <c r="D76" t="s">
+        <v>268</v>
+      </c>
+      <c r="E76" t="s">
+        <v>272</v>
+      </c>
+      <c r="F76" s="5">
+        <v>99.9</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="J76" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77">
